--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liikurserv\PycharmProjects\1500_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC25FB-7969-4611-9DCF-C72FFA8A4418}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D9FB6-C69B-4FD7-B56D-5CD324ABC28B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1" xr2:uid="{2D9B51C6-35DA-461A-AD87-997E4CDE2F50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{2D9B51C6-35DA-461A-AD87-997E4CDE2F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,11 +177,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,143 +497,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD52D571-7EAF-4F81-BE4F-CA8C3E58F2DF}">
-  <dimension ref="C11:V13"/>
+  <dimension ref="C2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1500</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2500</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="D12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="R11" s="1" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>6500</v>
+      </c>
+      <c r="D20">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>7500</v>
+      </c>
+      <c r="D24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1500</v>
-      </c>
-      <c r="D13">
-        <v>1500</v>
-      </c>
-      <c r="F13">
-        <v>2500</v>
-      </c>
-      <c r="G13">
-        <v>3000</v>
-      </c>
-      <c r="I13">
-        <v>3000</v>
-      </c>
-      <c r="J13">
-        <v>6000</v>
-      </c>
-      <c r="L13">
-        <v>5000</v>
-      </c>
-      <c r="M13">
-        <v>9000</v>
-      </c>
-      <c r="O13">
-        <v>6500</v>
-      </c>
-      <c r="P13">
-        <v>15000</v>
-      </c>
-      <c r="R13">
-        <v>7500</v>
-      </c>
-      <c r="S13">
-        <v>20000</v>
-      </c>
-      <c r="U13">
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>625</v>
       </c>
-      <c r="V13">
+      <c r="D28">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -632,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF0AAC-243A-4BF2-BED1-AEB0415807F5}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -643,10 +689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
